--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C---ompany files\demoproject\demoproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35454627-28B5-4507-B600-3959F88B6C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AECCB-504B-4058-8104-03C3CA9154F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>anushka</t>
+  </si>
+  <si>
+    <t>add</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,6 +373,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
